--- a/data/data_clean/2020/GNB2020_tax_base.xlsx
+++ b/data/data_clean/2020/GNB2020_tax_base.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Municipality</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>Total Tax Base for Rate</t>
+  </si>
+  <si>
+    <t>Bathurst</t>
+  </si>
+  <si>
+    <t>Campbellton</t>
+  </si>
+  <si>
+    <t>Dieppe</t>
+  </si>
+  <si>
+    <t>Edmundston</t>
   </si>
   <si>
     <t>Fredericton</t>
@@ -393,8 +405,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:L92" totalsRowShown="0">
-  <autoFilter ref="A1:L92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:L96" totalsRowShown="0">
+  <autoFilter ref="A1:L96"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Municipality" dataDxfId="0"/>
     <tableColumn id="2" name="General Residential Assessment" dataDxfId="1"/>
@@ -698,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -761,37 +773,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="3">
-        <v>4542953800</v>
+        <v>577837200</v>
       </c>
       <c r="C2" s="3">
-        <v>3551000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>889975800</v>
+        <v>204793700</v>
       </c>
       <c r="E2" s="3">
-        <v>5436480600</v>
+        <v>782630900</v>
       </c>
       <c r="F2" s="3">
-        <v>1210372700</v>
+        <v>168886500</v>
       </c>
       <c r="G2" s="3">
-        <v>51866900</v>
+        <v>16261000</v>
       </c>
       <c r="H2" s="3">
-        <v>198074100</v>
+        <v>12730100</v>
       </c>
       <c r="I2" s="3">
-        <v>1460313700</v>
+        <v>197877600</v>
       </c>
       <c r="J2" s="3">
-        <v>6896794300</v>
+        <v>980508500</v>
       </c>
       <c r="K2" s="3">
-        <v>7626951150</v>
+        <v>1079447300</v>
       </c>
       <c r="L2" s="3">
-        <v>7601756637</v>
+        <v>1079066793</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -799,37 +811,37 @@
         <v>13</v>
       </c>
       <c r="B3" s="3">
-        <v>882218100</v>
+        <v>350089200</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>227756200</v>
+        <v>165123800</v>
       </c>
       <c r="E3" s="3">
-        <v>1109974300</v>
+        <v>515213000</v>
       </c>
       <c r="F3" s="3">
-        <v>267148400</v>
+        <v>52816600</v>
       </c>
       <c r="G3" s="3">
-        <v>4798400</v>
+        <v>787700</v>
       </c>
       <c r="H3" s="3">
-        <v>15685200</v>
+        <v>3986000</v>
       </c>
       <c r="I3" s="3">
-        <v>287632000</v>
+        <v>57590300</v>
       </c>
       <c r="J3" s="3">
-        <v>1397606300</v>
+        <v>572803300</v>
       </c>
       <c r="K3" s="3">
-        <v>1541422300</v>
+        <v>601598450</v>
       </c>
       <c r="L3" s="3">
-        <v>1541422300</v>
+        <v>601598450</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -837,37 +849,37 @@
         <v>14</v>
       </c>
       <c r="B4" s="3">
-        <v>4808852600</v>
+        <v>2006515300</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="D4" s="3">
-        <v>850112400</v>
+        <v>111677400</v>
       </c>
       <c r="E4" s="3">
-        <v>5658965000</v>
+        <v>2118262700</v>
       </c>
       <c r="F4" s="3">
-        <v>1990145400</v>
+        <v>758755300</v>
       </c>
       <c r="G4" s="3">
-        <v>36097100</v>
+        <v>9284200</v>
       </c>
       <c r="H4" s="3">
-        <v>9231200</v>
+        <v>2026400</v>
       </c>
       <c r="I4" s="3">
-        <v>2035473700</v>
+        <v>770065900</v>
       </c>
       <c r="J4" s="3">
-        <v>7694438700</v>
+        <v>2888328600</v>
       </c>
       <c r="K4" s="3">
-        <v>8712175550</v>
+        <v>3273361550</v>
       </c>
       <c r="L4" s="3">
-        <v>8712175550</v>
+        <v>3272404203</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -875,37 +887,37 @@
         <v>15</v>
       </c>
       <c r="B5" s="3">
-        <v>21259914580</v>
+        <v>861625300</v>
       </c>
       <c r="C5" s="3">
-        <v>5324400</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>4008416700</v>
+        <v>240430200</v>
       </c>
       <c r="E5" s="3">
-        <v>25273655680</v>
+        <v>1102055500</v>
       </c>
       <c r="F5" s="3">
-        <v>8064993900</v>
+        <v>218088000</v>
       </c>
       <c r="G5" s="3">
-        <v>244183400</v>
+        <v>5251300</v>
       </c>
       <c r="H5" s="3">
-        <v>435791500</v>
+        <v>9145500</v>
       </c>
       <c r="I5" s="3">
-        <v>8744968800</v>
+        <v>232484800</v>
       </c>
       <c r="J5" s="3">
-        <v>34018624480</v>
+        <v>1334540300</v>
       </c>
       <c r="K5" s="3">
-        <v>38391108880</v>
+        <v>1450782700</v>
       </c>
       <c r="L5" s="3">
-        <v>38359259776</v>
+        <v>1450782700</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -913,37 +925,37 @@
         <v>16</v>
       </c>
       <c r="B6" s="3">
-        <v>237053900</v>
+        <v>4542953800</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>3551000</v>
       </c>
       <c r="D6" s="3">
-        <v>7004200</v>
+        <v>889975800</v>
       </c>
       <c r="E6" s="3">
-        <v>244058100</v>
+        <v>5436480600</v>
       </c>
       <c r="F6" s="3">
-        <v>29525400</v>
+        <v>1210372700</v>
       </c>
       <c r="G6" s="3">
-        <v>108100</v>
+        <v>51866900</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>198074100</v>
       </c>
       <c r="I6" s="3">
-        <v>29633500</v>
+        <v>1460313700</v>
       </c>
       <c r="J6" s="3">
-        <v>273691600</v>
+        <v>6896794300</v>
       </c>
       <c r="K6" s="3">
-        <v>288508350</v>
+        <v>7626951150</v>
       </c>
       <c r="L6" s="3">
-        <v>288508350</v>
+        <v>7601756637</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -951,37 +963,37 @@
         <v>17</v>
       </c>
       <c r="B7" s="3">
-        <v>140396400</v>
+        <v>882218100</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>25313400</v>
+        <v>227756200</v>
       </c>
       <c r="E7" s="3">
-        <v>165709800</v>
+        <v>1109974300</v>
       </c>
       <c r="F7" s="3">
-        <v>34888900</v>
+        <v>267148400</v>
       </c>
       <c r="G7" s="3">
-        <v>422600</v>
+        <v>4798400</v>
       </c>
       <c r="H7" s="3">
-        <v>2881300</v>
+        <v>15685200</v>
       </c>
       <c r="I7" s="3">
-        <v>38192800</v>
+        <v>287632000</v>
       </c>
       <c r="J7" s="3">
-        <v>203902600</v>
+        <v>1397606300</v>
       </c>
       <c r="K7" s="3">
-        <v>222999000</v>
+        <v>1541422300</v>
       </c>
       <c r="L7" s="3">
-        <v>222999000</v>
+        <v>1541422300</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -989,37 +1001,37 @@
         <v>18</v>
       </c>
       <c r="B8" s="3">
-        <v>271301400</v>
+        <v>4808852600</v>
       </c>
       <c r="C8" s="3">
-        <v>403400</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>39378600</v>
+        <v>850112400</v>
       </c>
       <c r="E8" s="3">
-        <v>311083400</v>
+        <v>5658965000</v>
       </c>
       <c r="F8" s="3">
-        <v>53162200</v>
+        <v>1990145400</v>
       </c>
       <c r="G8" s="3">
-        <v>646200</v>
+        <v>36097100</v>
       </c>
       <c r="H8" s="3">
-        <v>1161100</v>
+        <v>9231200</v>
       </c>
       <c r="I8" s="3">
-        <v>54969500</v>
+        <v>2035473700</v>
       </c>
       <c r="J8" s="3">
-        <v>366052900</v>
+        <v>7694438700</v>
       </c>
       <c r="K8" s="3">
-        <v>393537650</v>
+        <v>8712175550</v>
       </c>
       <c r="L8" s="3">
-        <v>393537650</v>
+        <v>8712175550</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1027,37 +1039,37 @@
         <v>19</v>
       </c>
       <c r="B9" s="3">
-        <v>112056400</v>
+        <v>21259914580</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>5324400</v>
       </c>
       <c r="D9" s="3">
-        <v>51656900</v>
+        <v>4008416700</v>
       </c>
       <c r="E9" s="3">
-        <v>163713300</v>
+        <v>25273655680</v>
       </c>
       <c r="F9" s="3">
-        <v>24036300</v>
+        <v>8064993900</v>
       </c>
       <c r="G9" s="3">
-        <v>560000</v>
+        <v>244183400</v>
       </c>
       <c r="H9" s="3">
-        <v>19057500</v>
+        <v>435791500</v>
       </c>
       <c r="I9" s="3">
-        <v>43653800</v>
+        <v>8744968800</v>
       </c>
       <c r="J9" s="3">
-        <v>207367100</v>
+        <v>34018624480</v>
       </c>
       <c r="K9" s="3">
-        <v>229194000</v>
+        <v>38391108880</v>
       </c>
       <c r="L9" s="3">
-        <v>229194000</v>
+        <v>38359259776</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1065,37 +1077,37 @@
         <v>20</v>
       </c>
       <c r="B10" s="3">
-        <v>87475100</v>
+        <v>237053900</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
       </c>
       <c r="D10" s="3">
-        <v>15359000</v>
+        <v>7004200</v>
       </c>
       <c r="E10" s="3">
-        <v>102834100</v>
+        <v>244058100</v>
       </c>
       <c r="F10" s="3">
-        <v>79097100</v>
+        <v>29525400</v>
       </c>
       <c r="G10" s="3">
-        <v>266300</v>
+        <v>108100</v>
       </c>
       <c r="H10" s="3">
-        <v>1105400</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>80468800</v>
+        <v>29633500</v>
       </c>
       <c r="J10" s="3">
-        <v>183302900</v>
+        <v>273691600</v>
       </c>
       <c r="K10" s="3">
-        <v>223537300</v>
+        <v>288508350</v>
       </c>
       <c r="L10" s="3">
-        <v>223537300</v>
+        <v>288508350</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1103,37 +1115,37 @@
         <v>21</v>
       </c>
       <c r="B11" s="3">
-        <v>354817300</v>
+        <v>140396400</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>14015100</v>
+        <v>25313400</v>
       </c>
       <c r="E11" s="3">
-        <v>368832400</v>
+        <v>165709800</v>
       </c>
       <c r="F11" s="3">
-        <v>8041700</v>
+        <v>34888900</v>
       </c>
       <c r="G11" s="3">
-        <v>1031100</v>
+        <v>422600</v>
       </c>
       <c r="H11" s="3">
-        <v>52500</v>
+        <v>2881300</v>
       </c>
       <c r="I11" s="3">
-        <v>9125300</v>
+        <v>38192800</v>
       </c>
       <c r="J11" s="3">
-        <v>377957700</v>
+        <v>203902600</v>
       </c>
       <c r="K11" s="3">
-        <v>382520350</v>
+        <v>222999000</v>
       </c>
       <c r="L11" s="3">
-        <v>382520350</v>
+        <v>222999000</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1141,37 +1153,37 @@
         <v>22</v>
       </c>
       <c r="B12" s="3">
-        <v>309082400</v>
+        <v>271301400</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>403400</v>
       </c>
       <c r="D12" s="3">
-        <v>63186100</v>
+        <v>39378600</v>
       </c>
       <c r="E12" s="3">
-        <v>372268500</v>
+        <v>311083400</v>
       </c>
       <c r="F12" s="3">
-        <v>116320000</v>
+        <v>53162200</v>
       </c>
       <c r="G12" s="3">
-        <v>2654500</v>
+        <v>646200</v>
       </c>
       <c r="H12" s="3">
-        <v>2704100</v>
+        <v>1161100</v>
       </c>
       <c r="I12" s="3">
-        <v>121678600</v>
+        <v>54969500</v>
       </c>
       <c r="J12" s="3">
-        <v>493947100</v>
+        <v>366052900</v>
       </c>
       <c r="K12" s="3">
-        <v>554786400</v>
+        <v>393537650</v>
       </c>
       <c r="L12" s="3">
-        <v>554786400</v>
+        <v>393537650</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1179,37 +1191,37 @@
         <v>23</v>
       </c>
       <c r="B13" s="3">
-        <v>310798300</v>
+        <v>112056400</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>22473900</v>
+        <v>51656900</v>
       </c>
       <c r="E13" s="3">
-        <v>333272200</v>
+        <v>163713300</v>
       </c>
       <c r="F13" s="3">
-        <v>21850400</v>
+        <v>24036300</v>
       </c>
       <c r="G13" s="3">
-        <v>1625400</v>
+        <v>560000</v>
       </c>
       <c r="H13" s="3">
-        <v>976600</v>
+        <v>19057500</v>
       </c>
       <c r="I13" s="3">
-        <v>24452400</v>
+        <v>43653800</v>
       </c>
       <c r="J13" s="3">
-        <v>357724600</v>
+        <v>207367100</v>
       </c>
       <c r="K13" s="3">
-        <v>369950800</v>
+        <v>229194000</v>
       </c>
       <c r="L13" s="3">
-        <v>369950800</v>
+        <v>229194000</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1217,37 +1229,37 @@
         <v>24</v>
       </c>
       <c r="B14" s="3">
-        <v>44278600</v>
+        <v>87475100</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>11465400</v>
+        <v>15359000</v>
       </c>
       <c r="E14" s="3">
-        <v>55744000</v>
+        <v>102834100</v>
       </c>
       <c r="F14" s="3">
-        <v>19667300</v>
+        <v>79097100</v>
       </c>
       <c r="G14" s="3">
-        <v>111300</v>
+        <v>266300</v>
       </c>
       <c r="H14" s="3">
-        <v>23000</v>
+        <v>1105400</v>
       </c>
       <c r="I14" s="3">
-        <v>19801600</v>
+        <v>80468800</v>
       </c>
       <c r="J14" s="3">
-        <v>75545600</v>
+        <v>183302900</v>
       </c>
       <c r="K14" s="3">
-        <v>85446400</v>
+        <v>223537300</v>
       </c>
       <c r="L14" s="3">
-        <v>85446400</v>
+        <v>223537300</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1255,37 +1267,37 @@
         <v>25</v>
       </c>
       <c r="B15" s="3">
-        <v>60215000</v>
+        <v>354817300</v>
       </c>
       <c r="C15" s="3">
-        <v>686000</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>12291300</v>
+        <v>14015100</v>
       </c>
       <c r="E15" s="3">
-        <v>73192300</v>
+        <v>368832400</v>
       </c>
       <c r="F15" s="3">
-        <v>15696100</v>
+        <v>8041700</v>
       </c>
       <c r="G15" s="3">
-        <v>466400</v>
+        <v>1031100</v>
       </c>
       <c r="H15" s="3">
-        <v>818700</v>
+        <v>52500</v>
       </c>
       <c r="I15" s="3">
-        <v>16981200</v>
+        <v>9125300</v>
       </c>
       <c r="J15" s="3">
-        <v>90173500</v>
+        <v>377957700</v>
       </c>
       <c r="K15" s="3">
-        <v>98664100</v>
+        <v>382520350</v>
       </c>
       <c r="L15" s="3">
-        <v>98664100</v>
+        <v>382520350</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1293,37 +1305,37 @@
         <v>26</v>
       </c>
       <c r="B16" s="3">
-        <v>45329700</v>
+        <v>309082400</v>
       </c>
       <c r="C16" s="3">
-        <v>360300</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>14592100</v>
+        <v>63186100</v>
       </c>
       <c r="E16" s="3">
-        <v>60282100</v>
+        <v>372268500</v>
       </c>
       <c r="F16" s="3">
-        <v>21224800</v>
+        <v>116320000</v>
       </c>
       <c r="G16" s="3">
-        <v>569100</v>
+        <v>2654500</v>
       </c>
       <c r="H16" s="3">
-        <v>217700</v>
+        <v>2704100</v>
       </c>
       <c r="I16" s="3">
-        <v>22011600</v>
+        <v>121678600</v>
       </c>
       <c r="J16" s="3">
-        <v>82293700</v>
+        <v>493947100</v>
       </c>
       <c r="K16" s="3">
-        <v>93299500</v>
+        <v>554786400</v>
       </c>
       <c r="L16" s="3">
-        <v>93299500</v>
+        <v>554786400</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1331,37 +1343,37 @@
         <v>27</v>
       </c>
       <c r="B17" s="3">
-        <v>408658200</v>
+        <v>310798300</v>
       </c>
       <c r="C17" s="3">
-        <v>202760800</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3">
-        <v>70099300</v>
+        <v>22473900</v>
       </c>
       <c r="E17" s="3">
-        <v>681518300</v>
+        <v>333272200</v>
       </c>
       <c r="F17" s="3">
-        <v>80686300</v>
+        <v>21850400</v>
       </c>
       <c r="G17" s="3">
-        <v>278786500</v>
+        <v>1625400</v>
       </c>
       <c r="H17" s="3">
-        <v>471700</v>
+        <v>976600</v>
       </c>
       <c r="I17" s="3">
-        <v>359944500</v>
+        <v>24452400</v>
       </c>
       <c r="J17" s="3">
-        <v>1041462800</v>
+        <v>357724600</v>
       </c>
       <c r="K17" s="3">
-        <v>1221435050</v>
+        <v>369950800</v>
       </c>
       <c r="L17" s="3">
-        <v>1221435050</v>
+        <v>369950800</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1369,37 +1381,37 @@
         <v>28</v>
       </c>
       <c r="B18" s="3">
-        <v>1628967300</v>
+        <v>44278600</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>62706800</v>
+        <v>11465400</v>
       </c>
       <c r="E18" s="3">
-        <v>1691674100</v>
+        <v>55744000</v>
       </c>
       <c r="F18" s="3">
-        <v>72726000</v>
+        <v>19667300</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>111300</v>
       </c>
       <c r="H18" s="3">
-        <v>1800</v>
+        <v>23000</v>
       </c>
       <c r="I18" s="3">
-        <v>72727800</v>
+        <v>19801600</v>
       </c>
       <c r="J18" s="3">
-        <v>1764401900</v>
+        <v>75545600</v>
       </c>
       <c r="K18" s="3">
-        <v>1800765800</v>
+        <v>85446400</v>
       </c>
       <c r="L18" s="3">
-        <v>1800765800</v>
+        <v>85446400</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1407,37 +1419,37 @@
         <v>29</v>
       </c>
       <c r="B19" s="3">
-        <v>55263300</v>
+        <v>60215000</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>686000</v>
       </c>
       <c r="D19" s="3">
-        <v>8386300</v>
+        <v>12291300</v>
       </c>
       <c r="E19" s="3">
-        <v>63649600</v>
+        <v>73192300</v>
       </c>
       <c r="F19" s="3">
-        <v>29785800</v>
+        <v>15696100</v>
       </c>
       <c r="G19" s="3">
-        <v>1092300</v>
+        <v>466400</v>
       </c>
       <c r="H19" s="3">
-        <v>1757200</v>
+        <v>818700</v>
       </c>
       <c r="I19" s="3">
-        <v>32635300</v>
+        <v>16981200</v>
       </c>
       <c r="J19" s="3">
-        <v>96284900</v>
+        <v>90173500</v>
       </c>
       <c r="K19" s="3">
-        <v>112602550</v>
+        <v>98664100</v>
       </c>
       <c r="L19" s="3">
-        <v>112602550</v>
+        <v>98664100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1445,37 +1457,37 @@
         <v>30</v>
       </c>
       <c r="B20" s="3">
-        <v>1311006000</v>
+        <v>45329700</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>360300</v>
       </c>
       <c r="D20" s="3">
-        <v>69583300</v>
+        <v>14592100</v>
       </c>
       <c r="E20" s="3">
-        <v>1380589300</v>
+        <v>60282100</v>
       </c>
       <c r="F20" s="3">
-        <v>120898400</v>
+        <v>21224800</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>569100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>217700</v>
       </c>
       <c r="I20" s="3">
-        <v>120898400</v>
+        <v>22011600</v>
       </c>
       <c r="J20" s="3">
-        <v>1501487700</v>
+        <v>82293700</v>
       </c>
       <c r="K20" s="3">
-        <v>1561936900</v>
+        <v>93299500</v>
       </c>
       <c r="L20" s="3">
-        <v>1561936900</v>
+        <v>93299500</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1483,37 +1495,37 @@
         <v>31</v>
       </c>
       <c r="B21" s="3">
-        <v>1155870900</v>
+        <v>408658200</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>202760800</v>
       </c>
       <c r="D21" s="3">
-        <v>50008700</v>
+        <v>70099300</v>
       </c>
       <c r="E21" s="3">
-        <v>1205879600</v>
+        <v>681518300</v>
       </c>
       <c r="F21" s="3">
-        <v>82010100</v>
+        <v>80686300</v>
       </c>
       <c r="G21" s="3">
-        <v>250300</v>
+        <v>278786500</v>
       </c>
       <c r="H21" s="3">
-        <v>511500</v>
+        <v>471700</v>
       </c>
       <c r="I21" s="3">
-        <v>82771900</v>
+        <v>359944500</v>
       </c>
       <c r="J21" s="3">
-        <v>1288651500</v>
+        <v>1041462800</v>
       </c>
       <c r="K21" s="3">
-        <v>1330037450</v>
+        <v>1221435050</v>
       </c>
       <c r="L21" s="3">
-        <v>1330037450</v>
+        <v>1221435050</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1521,37 +1533,37 @@
         <v>32</v>
       </c>
       <c r="B22" s="3">
-        <v>390401000</v>
+        <v>1628967300</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
       </c>
       <c r="D22" s="3">
-        <v>187708500</v>
+        <v>62706800</v>
       </c>
       <c r="E22" s="3">
-        <v>578109500</v>
+        <v>1691674100</v>
       </c>
       <c r="F22" s="3">
-        <v>51198400</v>
+        <v>72726000</v>
       </c>
       <c r="G22" s="3">
-        <v>28400</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>1654200</v>
+        <v>1800</v>
       </c>
       <c r="I22" s="3">
-        <v>52881000</v>
+        <v>72727800</v>
       </c>
       <c r="J22" s="3">
-        <v>630990500</v>
+        <v>1764401900</v>
       </c>
       <c r="K22" s="3">
-        <v>657431000</v>
+        <v>1800765800</v>
       </c>
       <c r="L22" s="3">
-        <v>657431000</v>
+        <v>1800765800</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1559,37 +1571,37 @@
         <v>33</v>
       </c>
       <c r="B23" s="3">
-        <v>251442800</v>
+        <v>55263300</v>
       </c>
       <c r="C23" s="3">
-        <v>192900</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3">
-        <v>16909600</v>
+        <v>8386300</v>
       </c>
       <c r="E23" s="3">
-        <v>268545300</v>
+        <v>63649600</v>
       </c>
       <c r="F23" s="3">
-        <v>23199700</v>
+        <v>29785800</v>
       </c>
       <c r="G23" s="3">
-        <v>15655000</v>
+        <v>1092300</v>
       </c>
       <c r="H23" s="3">
-        <v>1426700</v>
+        <v>1757200</v>
       </c>
       <c r="I23" s="3">
-        <v>40281400</v>
+        <v>32635300</v>
       </c>
       <c r="J23" s="3">
-        <v>308826700</v>
+        <v>96284900</v>
       </c>
       <c r="K23" s="3">
-        <v>328967400</v>
+        <v>112602550</v>
       </c>
       <c r="L23" s="3">
-        <v>328967400</v>
+        <v>112602550</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1597,37 +1609,37 @@
         <v>34</v>
       </c>
       <c r="B24" s="3">
-        <v>55039200</v>
+        <v>1311006000</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
       </c>
       <c r="D24" s="3">
-        <v>8610400</v>
+        <v>69583300</v>
       </c>
       <c r="E24" s="3">
-        <v>63649600</v>
+        <v>1380589300</v>
       </c>
       <c r="F24" s="3">
-        <v>6422100</v>
+        <v>120898400</v>
       </c>
       <c r="G24" s="3">
-        <v>3874100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>610200</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>10906400</v>
+        <v>120898400</v>
       </c>
       <c r="J24" s="3">
-        <v>74556000</v>
+        <v>1501487700</v>
       </c>
       <c r="K24" s="3">
-        <v>80009200</v>
+        <v>1561936900</v>
       </c>
       <c r="L24" s="3">
-        <v>80009200</v>
+        <v>1561936900</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1635,37 +1647,37 @@
         <v>35</v>
       </c>
       <c r="B25" s="3">
-        <v>95395100</v>
+        <v>1155870900</v>
       </c>
       <c r="C25" s="3">
-        <v>530900</v>
+        <v>0</v>
       </c>
       <c r="D25" s="3">
-        <v>20198700</v>
+        <v>50008700</v>
       </c>
       <c r="E25" s="3">
-        <v>116124700</v>
+        <v>1205879600</v>
       </c>
       <c r="F25" s="3">
-        <v>12515700</v>
+        <v>82010100</v>
       </c>
       <c r="G25" s="3">
-        <v>692000</v>
+        <v>250300</v>
       </c>
       <c r="H25" s="3">
-        <v>210300</v>
+        <v>511500</v>
       </c>
       <c r="I25" s="3">
-        <v>13418000</v>
+        <v>82771900</v>
       </c>
       <c r="J25" s="3">
-        <v>129542700</v>
+        <v>1288651500</v>
       </c>
       <c r="K25" s="3">
-        <v>136251700</v>
+        <v>1330037450</v>
       </c>
       <c r="L25" s="3">
-        <v>136251700</v>
+        <v>1330037450</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1673,37 +1685,37 @@
         <v>36</v>
       </c>
       <c r="B26" s="3">
-        <v>488867100</v>
+        <v>390401000</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
       </c>
       <c r="D26" s="3">
-        <v>28329800</v>
+        <v>187708500</v>
       </c>
       <c r="E26" s="3">
-        <v>517196900</v>
+        <v>578109500</v>
       </c>
       <c r="F26" s="3">
-        <v>89731600</v>
+        <v>51198400</v>
       </c>
       <c r="G26" s="3">
-        <v>8173900</v>
+        <v>28400</v>
       </c>
       <c r="H26" s="3">
-        <v>30125300</v>
+        <v>1654200</v>
       </c>
       <c r="I26" s="3">
-        <v>128030800</v>
+        <v>52881000</v>
       </c>
       <c r="J26" s="3">
-        <v>645227700</v>
+        <v>630990500</v>
       </c>
       <c r="K26" s="3">
-        <v>709243100</v>
+        <v>657431000</v>
       </c>
       <c r="L26" s="3">
-        <v>709243100</v>
+        <v>657431000</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1711,37 +1723,37 @@
         <v>37</v>
       </c>
       <c r="B27" s="3">
-        <v>127990500</v>
+        <v>251442800</v>
       </c>
       <c r="C27" s="3">
-        <v>0</v>
+        <v>192900</v>
       </c>
       <c r="D27" s="3">
-        <v>60934800</v>
+        <v>16909600</v>
       </c>
       <c r="E27" s="3">
-        <v>188925300</v>
+        <v>268545300</v>
       </c>
       <c r="F27" s="3">
-        <v>27688400</v>
+        <v>23199700</v>
       </c>
       <c r="G27" s="3">
-        <v>1186100</v>
+        <v>15655000</v>
       </c>
       <c r="H27" s="3">
-        <v>6989900</v>
+        <v>1426700</v>
       </c>
       <c r="I27" s="3">
-        <v>35864400</v>
+        <v>40281400</v>
       </c>
       <c r="J27" s="3">
-        <v>224789700</v>
+        <v>308826700</v>
       </c>
       <c r="K27" s="3">
-        <v>242721900</v>
+        <v>328967400</v>
       </c>
       <c r="L27" s="3">
-        <v>242721900</v>
+        <v>328967400</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1749,37 +1761,37 @@
         <v>38</v>
       </c>
       <c r="B28" s="3">
-        <v>73445800</v>
+        <v>55039200</v>
       </c>
       <c r="C28" s="3">
-        <v>331200</v>
+        <v>0</v>
       </c>
       <c r="D28" s="3">
-        <v>18237900</v>
+        <v>8610400</v>
       </c>
       <c r="E28" s="3">
-        <v>92014900</v>
+        <v>63649600</v>
       </c>
       <c r="F28" s="3">
-        <v>23315600</v>
+        <v>6422100</v>
       </c>
       <c r="G28" s="3">
-        <v>2721700</v>
+        <v>3874100</v>
       </c>
       <c r="H28" s="3">
-        <v>5448500</v>
+        <v>610200</v>
       </c>
       <c r="I28" s="3">
-        <v>31485800</v>
+        <v>10906400</v>
       </c>
       <c r="J28" s="3">
-        <v>123500700</v>
+        <v>74556000</v>
       </c>
       <c r="K28" s="3">
-        <v>139243600</v>
+        <v>80009200</v>
       </c>
       <c r="L28" s="3">
-        <v>139243600</v>
+        <v>80009200</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1787,37 +1799,37 @@
         <v>39</v>
       </c>
       <c r="B29" s="3">
-        <v>181299200</v>
+        <v>95395100</v>
       </c>
       <c r="C29" s="3">
-        <v>0</v>
+        <v>530900</v>
       </c>
       <c r="D29" s="3">
-        <v>45809300</v>
+        <v>20198700</v>
       </c>
       <c r="E29" s="3">
-        <v>227108500</v>
+        <v>116124700</v>
       </c>
       <c r="F29" s="3">
-        <v>61371400</v>
+        <v>12515700</v>
       </c>
       <c r="G29" s="3">
-        <v>7697400</v>
+        <v>692000</v>
       </c>
       <c r="H29" s="3">
-        <v>7476800</v>
+        <v>210300</v>
       </c>
       <c r="I29" s="3">
-        <v>76545600</v>
+        <v>13418000</v>
       </c>
       <c r="J29" s="3">
-        <v>303654100</v>
+        <v>129542700</v>
       </c>
       <c r="K29" s="3">
-        <v>341926900</v>
+        <v>136251700</v>
       </c>
       <c r="L29" s="3">
-        <v>341926900</v>
+        <v>136251700</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1825,37 +1837,37 @@
         <v>40</v>
       </c>
       <c r="B30" s="3">
-        <v>230898800</v>
+        <v>488867100</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
       </c>
       <c r="D30" s="3">
-        <v>43442300</v>
+        <v>28329800</v>
       </c>
       <c r="E30" s="3">
-        <v>274341100</v>
+        <v>517196900</v>
       </c>
       <c r="F30" s="3">
-        <v>92005300</v>
+        <v>89731600</v>
       </c>
       <c r="G30" s="3">
-        <v>3004600</v>
+        <v>8173900</v>
       </c>
       <c r="H30" s="3">
-        <v>2371500</v>
+        <v>30125300</v>
       </c>
       <c r="I30" s="3">
-        <v>97381400</v>
+        <v>128030800</v>
       </c>
       <c r="J30" s="3">
-        <v>371722500</v>
+        <v>645227700</v>
       </c>
       <c r="K30" s="3">
-        <v>420413200</v>
+        <v>709243100</v>
       </c>
       <c r="L30" s="3">
-        <v>420413200</v>
+        <v>709243100</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1863,37 +1875,37 @@
         <v>41</v>
       </c>
       <c r="B31" s="3">
-        <v>8988779100</v>
+        <v>127990500</v>
       </c>
       <c r="C31" s="3">
-        <v>205265500</v>
+        <v>0</v>
       </c>
       <c r="D31" s="3">
-        <v>1109593100</v>
+        <v>60934800</v>
       </c>
       <c r="E31" s="3">
-        <v>10303637700</v>
+        <v>188925300</v>
       </c>
       <c r="F31" s="3">
-        <v>1397828600</v>
+        <v>27688400</v>
       </c>
       <c r="G31" s="3">
-        <v>339314300</v>
+        <v>1186100</v>
       </c>
       <c r="H31" s="3">
-        <v>98806300</v>
+        <v>6989900</v>
       </c>
       <c r="I31" s="3">
-        <v>1835949200</v>
+        <v>35864400</v>
       </c>
       <c r="J31" s="3">
-        <v>12139586900</v>
+        <v>224789700</v>
       </c>
       <c r="K31" s="3">
-        <v>13057561500</v>
+        <v>242721900</v>
       </c>
       <c r="L31" s="3">
-        <v>13057561500</v>
+        <v>242721900</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1901,37 +1913,37 @@
         <v>42</v>
       </c>
       <c r="B32" s="3">
-        <v>24466600</v>
+        <v>73445800</v>
       </c>
       <c r="C32" s="3">
-        <v>469900</v>
+        <v>331200</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>18237900</v>
       </c>
       <c r="E32" s="3">
-        <v>24936500</v>
+        <v>92014900</v>
       </c>
       <c r="F32" s="3">
-        <v>3279700</v>
+        <v>23315600</v>
       </c>
       <c r="G32" s="3">
-        <v>99600</v>
+        <v>2721700</v>
       </c>
       <c r="H32" s="3">
-        <v>1800</v>
+        <v>5448500</v>
       </c>
       <c r="I32" s="3">
-        <v>3381100</v>
+        <v>31485800</v>
       </c>
       <c r="J32" s="3">
-        <v>28317600</v>
+        <v>123500700</v>
       </c>
       <c r="K32" s="3">
-        <v>30008150</v>
+        <v>139243600</v>
       </c>
       <c r="L32" s="3">
-        <v>30008150</v>
+        <v>139243600</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1939,37 +1951,37 @@
         <v>43</v>
       </c>
       <c r="B33" s="3">
-        <v>9748000</v>
+        <v>181299200</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
       </c>
       <c r="D33" s="3">
-        <v>29000</v>
+        <v>45809300</v>
       </c>
       <c r="E33" s="3">
-        <v>9777000</v>
+        <v>227108500</v>
       </c>
       <c r="F33" s="3">
-        <v>210500</v>
+        <v>61371400</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>7697400</v>
       </c>
       <c r="H33" s="3">
-        <v>51200</v>
+        <v>7476800</v>
       </c>
       <c r="I33" s="3">
-        <v>261700</v>
+        <v>76545600</v>
       </c>
       <c r="J33" s="3">
-        <v>10038700</v>
+        <v>303654100</v>
       </c>
       <c r="K33" s="3">
-        <v>10169550</v>
+        <v>341926900</v>
       </c>
       <c r="L33" s="3">
-        <v>10169550</v>
+        <v>341926900</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1977,37 +1989,37 @@
         <v>44</v>
       </c>
       <c r="B34" s="3">
-        <v>139479400</v>
+        <v>230898800</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
       </c>
       <c r="D34" s="3">
-        <v>3834900</v>
+        <v>43442300</v>
       </c>
       <c r="E34" s="3">
-        <v>143314300</v>
+        <v>274341100</v>
       </c>
       <c r="F34" s="3">
-        <v>57861800</v>
+        <v>92005300</v>
       </c>
       <c r="G34" s="3">
-        <v>133100</v>
+        <v>3004600</v>
       </c>
       <c r="H34" s="3">
-        <v>3326700</v>
+        <v>2371500</v>
       </c>
       <c r="I34" s="3">
-        <v>61321600</v>
+        <v>97381400</v>
       </c>
       <c r="J34" s="3">
-        <v>204635900</v>
+        <v>371722500</v>
       </c>
       <c r="K34" s="3">
-        <v>235296700</v>
+        <v>420413200</v>
       </c>
       <c r="L34" s="3">
-        <v>235296700</v>
+        <v>420413200</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2015,37 +2027,37 @@
         <v>45</v>
       </c>
       <c r="B35" s="3">
-        <v>76384400</v>
+        <v>8988779100</v>
       </c>
       <c r="C35" s="3">
-        <v>139700</v>
+        <v>205265500</v>
       </c>
       <c r="D35" s="3">
-        <v>17412900</v>
+        <v>1109593100</v>
       </c>
       <c r="E35" s="3">
-        <v>93937000</v>
+        <v>10303637700</v>
       </c>
       <c r="F35" s="3">
-        <v>5480000</v>
+        <v>1397828600</v>
       </c>
       <c r="G35" s="3">
-        <v>48100</v>
+        <v>339314300</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>98806300</v>
       </c>
       <c r="I35" s="3">
-        <v>5528100</v>
+        <v>1835949200</v>
       </c>
       <c r="J35" s="3">
-        <v>99465100</v>
+        <v>12139586900</v>
       </c>
       <c r="K35" s="3">
-        <v>102229150</v>
+        <v>13057561500</v>
       </c>
       <c r="L35" s="3">
-        <v>102229150</v>
+        <v>13057561500</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2053,37 +2065,37 @@
         <v>46</v>
       </c>
       <c r="B36" s="3">
-        <v>54835800</v>
+        <v>24466600</v>
       </c>
       <c r="C36" s="3">
-        <v>0</v>
+        <v>469900</v>
       </c>
       <c r="D36" s="3">
-        <v>5229200</v>
+        <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>60065000</v>
+        <v>24936500</v>
       </c>
       <c r="F36" s="3">
-        <v>8936800</v>
+        <v>3279700</v>
       </c>
       <c r="G36" s="3">
-        <v>18400</v>
+        <v>99600</v>
       </c>
       <c r="H36" s="3">
-        <v>331200</v>
+        <v>1800</v>
       </c>
       <c r="I36" s="3">
-        <v>9286400</v>
+        <v>3381100</v>
       </c>
       <c r="J36" s="3">
-        <v>69351400</v>
+        <v>28317600</v>
       </c>
       <c r="K36" s="3">
-        <v>73994600</v>
+        <v>30008150</v>
       </c>
       <c r="L36" s="3">
-        <v>73994600</v>
+        <v>30008150</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2091,37 +2103,37 @@
         <v>47</v>
       </c>
       <c r="B37" s="3">
-        <v>15484900</v>
+        <v>9748000</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
       </c>
       <c r="D37" s="3">
-        <v>3286400</v>
+        <v>29000</v>
       </c>
       <c r="E37" s="3">
-        <v>18771300</v>
+        <v>9777000</v>
       </c>
       <c r="F37" s="3">
-        <v>1604100</v>
+        <v>210500</v>
       </c>
       <c r="G37" s="3">
-        <v>55900</v>
+        <v>0</v>
       </c>
       <c r="H37" s="3">
-        <v>524200</v>
+        <v>51200</v>
       </c>
       <c r="I37" s="3">
-        <v>2184200</v>
+        <v>261700</v>
       </c>
       <c r="J37" s="3">
-        <v>20955500</v>
+        <v>10038700</v>
       </c>
       <c r="K37" s="3">
-        <v>22047600</v>
+        <v>10169550</v>
       </c>
       <c r="L37" s="3">
-        <v>22047600</v>
+        <v>10169550</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2129,37 +2141,37 @@
         <v>48</v>
       </c>
       <c r="B38" s="3">
-        <v>56570200</v>
+        <v>139479400</v>
       </c>
       <c r="C38" s="3">
-        <v>90300</v>
+        <v>0</v>
       </c>
       <c r="D38" s="3">
-        <v>4841100</v>
+        <v>3834900</v>
       </c>
       <c r="E38" s="3">
-        <v>61501600</v>
+        <v>143314300</v>
       </c>
       <c r="F38" s="3">
-        <v>202326500</v>
+        <v>57861800</v>
       </c>
       <c r="G38" s="3">
-        <v>15177300</v>
+        <v>133100</v>
       </c>
       <c r="H38" s="3">
-        <v>555800</v>
+        <v>3326700</v>
       </c>
       <c r="I38" s="3">
-        <v>218059600</v>
+        <v>61321600</v>
       </c>
       <c r="J38" s="3">
-        <v>279561200</v>
+        <v>204635900</v>
       </c>
       <c r="K38" s="3">
-        <v>388591000</v>
+        <v>235296700</v>
       </c>
       <c r="L38" s="3">
-        <v>388591000</v>
+        <v>235296700</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2167,37 +2179,37 @@
         <v>49</v>
       </c>
       <c r="B39" s="3">
-        <v>50115100</v>
+        <v>76384400</v>
       </c>
       <c r="C39" s="3">
-        <v>0</v>
+        <v>139700</v>
       </c>
       <c r="D39" s="3">
-        <v>6386600</v>
+        <v>17412900</v>
       </c>
       <c r="E39" s="3">
-        <v>56501700</v>
+        <v>93937000</v>
       </c>
       <c r="F39" s="3">
-        <v>1659500</v>
+        <v>5480000</v>
       </c>
       <c r="G39" s="3">
-        <v>0</v>
+        <v>48100</v>
       </c>
       <c r="H39" s="3">
-        <v>2024000</v>
+        <v>0</v>
       </c>
       <c r="I39" s="3">
-        <v>3683500</v>
+        <v>5528100</v>
       </c>
       <c r="J39" s="3">
-        <v>60185200</v>
+        <v>99465100</v>
       </c>
       <c r="K39" s="3">
-        <v>62026950</v>
+        <v>102229150</v>
       </c>
       <c r="L39" s="3">
-        <v>62026950</v>
+        <v>102229150</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2205,37 +2217,37 @@
         <v>50</v>
       </c>
       <c r="B40" s="3">
-        <v>27395500</v>
+        <v>54835800</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
       </c>
       <c r="D40" s="3">
-        <v>5533700</v>
+        <v>5229200</v>
       </c>
       <c r="E40" s="3">
-        <v>32929200</v>
+        <v>60065000</v>
       </c>
       <c r="F40" s="3">
-        <v>15894400</v>
+        <v>8936800</v>
       </c>
       <c r="G40" s="3">
-        <v>53800</v>
+        <v>18400</v>
       </c>
       <c r="H40" s="3">
-        <v>1239000</v>
+        <v>331200</v>
       </c>
       <c r="I40" s="3">
-        <v>17187200</v>
+        <v>9286400</v>
       </c>
       <c r="J40" s="3">
-        <v>50116400</v>
+        <v>69351400</v>
       </c>
       <c r="K40" s="3">
-        <v>58710000</v>
+        <v>73994600</v>
       </c>
       <c r="L40" s="3">
-        <v>58710000</v>
+        <v>73994600</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2243,37 +2255,37 @@
         <v>51</v>
       </c>
       <c r="B41" s="3">
-        <v>38068100</v>
+        <v>15484900</v>
       </c>
       <c r="C41" s="3">
-        <v>355300</v>
+        <v>0</v>
       </c>
       <c r="D41" s="3">
-        <v>6164200</v>
+        <v>3286400</v>
       </c>
       <c r="E41" s="3">
-        <v>44587600</v>
+        <v>18771300</v>
       </c>
       <c r="F41" s="3">
-        <v>2648700</v>
+        <v>1604100</v>
       </c>
       <c r="G41" s="3">
-        <v>566000</v>
+        <v>55900</v>
       </c>
       <c r="H41" s="3">
-        <v>339200</v>
+        <v>524200</v>
       </c>
       <c r="I41" s="3">
-        <v>3553900</v>
+        <v>2184200</v>
       </c>
       <c r="J41" s="3">
-        <v>48141500</v>
+        <v>20955500</v>
       </c>
       <c r="K41" s="3">
-        <v>49918450</v>
+        <v>22047600</v>
       </c>
       <c r="L41" s="3">
-        <v>49918450</v>
+        <v>22047600</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2281,37 +2293,37 @@
         <v>52</v>
       </c>
       <c r="B42" s="3">
-        <v>90934000</v>
+        <v>56570200</v>
       </c>
       <c r="C42" s="3">
-        <v>111100</v>
+        <v>90300</v>
       </c>
       <c r="D42" s="3">
-        <v>4680300</v>
+        <v>4841100</v>
       </c>
       <c r="E42" s="3">
-        <v>95725400</v>
+        <v>61501600</v>
       </c>
       <c r="F42" s="3">
-        <v>468500</v>
+        <v>202326500</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>15177300</v>
       </c>
       <c r="H42" s="3">
-        <v>3600</v>
+        <v>555800</v>
       </c>
       <c r="I42" s="3">
-        <v>472100</v>
+        <v>218059600</v>
       </c>
       <c r="J42" s="3">
-        <v>96197500</v>
+        <v>279561200</v>
       </c>
       <c r="K42" s="3">
-        <v>96433550</v>
+        <v>388591000</v>
       </c>
       <c r="L42" s="3">
-        <v>96433550</v>
+        <v>388591000</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2319,37 +2331,37 @@
         <v>53</v>
       </c>
       <c r="B43" s="3">
-        <v>8528700</v>
+        <v>50115100</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
       </c>
       <c r="D43" s="3">
-        <v>4400600</v>
+        <v>6386600</v>
       </c>
       <c r="E43" s="3">
-        <v>12929300</v>
+        <v>56501700</v>
       </c>
       <c r="F43" s="3">
-        <v>264500</v>
+        <v>1659500</v>
       </c>
       <c r="G43" s="3">
-        <v>45500</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>263900</v>
+        <v>2024000</v>
       </c>
       <c r="I43" s="3">
-        <v>573900</v>
+        <v>3683500</v>
       </c>
       <c r="J43" s="3">
-        <v>13503200</v>
+        <v>60185200</v>
       </c>
       <c r="K43" s="3">
-        <v>13790150</v>
+        <v>62026950</v>
       </c>
       <c r="L43" s="3">
-        <v>13790150</v>
+        <v>62026950</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2357,37 +2369,37 @@
         <v>54</v>
       </c>
       <c r="B44" s="3">
-        <v>158476900</v>
+        <v>27395500</v>
       </c>
       <c r="C44" s="3">
-        <v>133200</v>
+        <v>0</v>
       </c>
       <c r="D44" s="3">
-        <v>6214800</v>
+        <v>5533700</v>
       </c>
       <c r="E44" s="3">
-        <v>164824900</v>
+        <v>32929200</v>
       </c>
       <c r="F44" s="3">
-        <v>27881800</v>
+        <v>15894400</v>
       </c>
       <c r="G44" s="3">
-        <v>186600</v>
+        <v>53800</v>
       </c>
       <c r="H44" s="3">
-        <v>690300</v>
+        <v>1239000</v>
       </c>
       <c r="I44" s="3">
-        <v>28758700</v>
+        <v>17187200</v>
       </c>
       <c r="J44" s="3">
-        <v>193583600</v>
+        <v>50116400</v>
       </c>
       <c r="K44" s="3">
-        <v>207962950</v>
+        <v>58710000</v>
       </c>
       <c r="L44" s="3">
-        <v>207962950</v>
+        <v>58710000</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2395,37 +2407,37 @@
         <v>55</v>
       </c>
       <c r="B45" s="3">
-        <v>19849100</v>
+        <v>38068100</v>
       </c>
       <c r="C45" s="3">
-        <v>0</v>
+        <v>355300</v>
       </c>
       <c r="D45" s="3">
-        <v>4064400</v>
+        <v>6164200</v>
       </c>
       <c r="E45" s="3">
-        <v>23913500</v>
+        <v>44587600</v>
       </c>
       <c r="F45" s="3">
-        <v>8793500</v>
+        <v>2648700</v>
       </c>
       <c r="G45" s="3">
-        <v>61700</v>
+        <v>566000</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>339200</v>
       </c>
       <c r="I45" s="3">
-        <v>8855200</v>
+        <v>3553900</v>
       </c>
       <c r="J45" s="3">
-        <v>32768700</v>
+        <v>48141500</v>
       </c>
       <c r="K45" s="3">
-        <v>37196300</v>
+        <v>49918450</v>
       </c>
       <c r="L45" s="3">
-        <v>37196300</v>
+        <v>49918450</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2433,37 +2445,37 @@
         <v>56</v>
       </c>
       <c r="B46" s="3">
-        <v>76646300</v>
+        <v>90934000</v>
       </c>
       <c r="C46" s="3">
-        <v>100800</v>
+        <v>111100</v>
       </c>
       <c r="D46" s="3">
-        <v>33800</v>
+        <v>4680300</v>
       </c>
       <c r="E46" s="3">
-        <v>76780900</v>
+        <v>95725400</v>
       </c>
       <c r="F46" s="3">
-        <v>6679400</v>
+        <v>468500</v>
       </c>
       <c r="G46" s="3">
-        <v>60600</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I46" s="3">
-        <v>6743500</v>
+        <v>472100</v>
       </c>
       <c r="J46" s="3">
-        <v>83524400</v>
+        <v>96197500</v>
       </c>
       <c r="K46" s="3">
-        <v>86896150</v>
+        <v>96433550</v>
       </c>
       <c r="L46" s="3">
-        <v>86896150</v>
+        <v>96433550</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2471,37 +2483,37 @@
         <v>57</v>
       </c>
       <c r="B47" s="3">
-        <v>34943800</v>
+        <v>8528700</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
       </c>
       <c r="D47" s="3">
-        <v>10433700</v>
+        <v>4400600</v>
       </c>
       <c r="E47" s="3">
-        <v>45377500</v>
+        <v>12929300</v>
       </c>
       <c r="F47" s="3">
-        <v>14698000</v>
+        <v>264500</v>
       </c>
       <c r="G47" s="3">
-        <v>89800</v>
+        <v>45500</v>
       </c>
       <c r="H47" s="3">
-        <v>829500</v>
+        <v>263900</v>
       </c>
       <c r="I47" s="3">
-        <v>15617300</v>
+        <v>573900</v>
       </c>
       <c r="J47" s="3">
-        <v>60994800</v>
+        <v>13503200</v>
       </c>
       <c r="K47" s="3">
-        <v>68803450</v>
+        <v>13790150</v>
       </c>
       <c r="L47" s="3">
-        <v>68803450</v>
+        <v>13790150</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2509,37 +2521,37 @@
         <v>58</v>
       </c>
       <c r="B48" s="3">
-        <v>30624200</v>
+        <v>158476900</v>
       </c>
       <c r="C48" s="3">
-        <v>439500</v>
+        <v>133200</v>
       </c>
       <c r="D48" s="3">
-        <v>3561400</v>
+        <v>6214800</v>
       </c>
       <c r="E48" s="3">
-        <v>34625100</v>
+        <v>164824900</v>
       </c>
       <c r="F48" s="3">
-        <v>12317400</v>
+        <v>27881800</v>
       </c>
       <c r="G48" s="3">
-        <v>500400</v>
+        <v>186600</v>
       </c>
       <c r="H48" s="3">
-        <v>2357800</v>
+        <v>690300</v>
       </c>
       <c r="I48" s="3">
-        <v>15175600</v>
+        <v>28758700</v>
       </c>
       <c r="J48" s="3">
-        <v>49800700</v>
+        <v>193583600</v>
       </c>
       <c r="K48" s="3">
-        <v>57388500</v>
+        <v>207962950</v>
       </c>
       <c r="L48" s="3">
-        <v>57388500</v>
+        <v>207962950</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2547,37 +2559,37 @@
         <v>59</v>
       </c>
       <c r="B49" s="3">
-        <v>15386800</v>
+        <v>19849100</v>
       </c>
       <c r="C49" s="3">
-        <v>9645000</v>
+        <v>0</v>
       </c>
       <c r="D49" s="3">
-        <v>1400300</v>
+        <v>4064400</v>
       </c>
       <c r="E49" s="3">
-        <v>26432100</v>
+        <v>23913500</v>
       </c>
       <c r="F49" s="3">
-        <v>577400</v>
+        <v>8793500</v>
       </c>
       <c r="G49" s="3">
-        <v>21507200</v>
+        <v>61700</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>22084600</v>
+        <v>8855200</v>
       </c>
       <c r="J49" s="3">
-        <v>48516700</v>
+        <v>32768700</v>
       </c>
       <c r="K49" s="3">
-        <v>59559000</v>
+        <v>37196300</v>
       </c>
       <c r="L49" s="3">
-        <v>59559000</v>
+        <v>37196300</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2585,37 +2597,37 @@
         <v>60</v>
       </c>
       <c r="B50" s="3">
-        <v>45415700</v>
+        <v>76646300</v>
       </c>
       <c r="C50" s="3">
-        <v>0</v>
+        <v>100800</v>
       </c>
       <c r="D50" s="3">
-        <v>4531600</v>
+        <v>33800</v>
       </c>
       <c r="E50" s="3">
-        <v>49947300</v>
+        <v>76780900</v>
       </c>
       <c r="F50" s="3">
-        <v>3119600</v>
+        <v>6679400</v>
       </c>
       <c r="G50" s="3">
-        <v>0</v>
+        <v>60600</v>
       </c>
       <c r="H50" s="3">
-        <v>182700</v>
+        <v>3500</v>
       </c>
       <c r="I50" s="3">
-        <v>3302300</v>
+        <v>6743500</v>
       </c>
       <c r="J50" s="3">
-        <v>53249600</v>
+        <v>83524400</v>
       </c>
       <c r="K50" s="3">
-        <v>54900750</v>
+        <v>86896150</v>
       </c>
       <c r="L50" s="3">
-        <v>54900750</v>
+        <v>86896150</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2623,37 +2635,37 @@
         <v>61</v>
       </c>
       <c r="B51" s="3">
-        <v>71594600</v>
+        <v>34943800</v>
       </c>
       <c r="C51" s="3">
-        <v>126200</v>
+        <v>0</v>
       </c>
       <c r="D51" s="3">
-        <v>160100</v>
+        <v>10433700</v>
       </c>
       <c r="E51" s="3">
-        <v>71880900</v>
+        <v>45377500</v>
       </c>
       <c r="F51" s="3">
-        <v>8251400</v>
+        <v>14698000</v>
       </c>
       <c r="G51" s="3">
-        <v>51800</v>
+        <v>89800</v>
       </c>
       <c r="H51" s="3">
-        <v>12600</v>
+        <v>829500</v>
       </c>
       <c r="I51" s="3">
-        <v>8315800</v>
+        <v>15617300</v>
       </c>
       <c r="J51" s="3">
-        <v>80196700</v>
+        <v>60994800</v>
       </c>
       <c r="K51" s="3">
-        <v>84354600</v>
+        <v>68803450</v>
       </c>
       <c r="L51" s="3">
-        <v>84354600</v>
+        <v>68803450</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2661,37 +2673,37 @@
         <v>62</v>
       </c>
       <c r="B52" s="3">
-        <v>32090300</v>
+        <v>30624200</v>
       </c>
       <c r="C52" s="3">
-        <v>0</v>
+        <v>439500</v>
       </c>
       <c r="D52" s="3">
-        <v>6791900</v>
+        <v>3561400</v>
       </c>
       <c r="E52" s="3">
-        <v>38882200</v>
+        <v>34625100</v>
       </c>
       <c r="F52" s="3">
-        <v>1326500</v>
+        <v>12317400</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>500400</v>
       </c>
       <c r="H52" s="3">
-        <v>849200</v>
+        <v>2357800</v>
       </c>
       <c r="I52" s="3">
-        <v>2175700</v>
+        <v>15175600</v>
       </c>
       <c r="J52" s="3">
-        <v>41057900</v>
+        <v>49800700</v>
       </c>
       <c r="K52" s="3">
-        <v>42145750</v>
+        <v>57388500</v>
       </c>
       <c r="L52" s="3">
-        <v>42145750</v>
+        <v>57388500</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2699,37 +2711,37 @@
         <v>63</v>
       </c>
       <c r="B53" s="3">
-        <v>58467700</v>
+        <v>15386800</v>
       </c>
       <c r="C53" s="3">
-        <v>0</v>
+        <v>9645000</v>
       </c>
       <c r="D53" s="3">
-        <v>1640600</v>
+        <v>1400300</v>
       </c>
       <c r="E53" s="3">
-        <v>60108300</v>
+        <v>26432100</v>
       </c>
       <c r="F53" s="3">
-        <v>1316900</v>
+        <v>577400</v>
       </c>
       <c r="G53" s="3">
-        <v>149800</v>
+        <v>21507200</v>
       </c>
       <c r="H53" s="3">
-        <v>184300</v>
+        <v>0</v>
       </c>
       <c r="I53" s="3">
-        <v>1651000</v>
+        <v>22084600</v>
       </c>
       <c r="J53" s="3">
-        <v>61759300</v>
+        <v>48516700</v>
       </c>
       <c r="K53" s="3">
-        <v>62584800</v>
+        <v>59559000</v>
       </c>
       <c r="L53" s="3">
-        <v>62584800</v>
+        <v>59559000</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2737,37 +2749,37 @@
         <v>64</v>
       </c>
       <c r="B54" s="3">
-        <v>167722300</v>
+        <v>45415700</v>
       </c>
       <c r="C54" s="3">
-        <v>821500</v>
+        <v>0</v>
       </c>
       <c r="D54" s="3">
-        <v>6431900</v>
+        <v>4531600</v>
       </c>
       <c r="E54" s="3">
-        <v>174975700</v>
+        <v>49947300</v>
       </c>
       <c r="F54" s="3">
-        <v>19503200</v>
+        <v>3119600</v>
       </c>
       <c r="G54" s="3">
-        <v>627600</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>1756600</v>
+        <v>182700</v>
       </c>
       <c r="I54" s="3">
-        <v>21887400</v>
+        <v>3302300</v>
       </c>
       <c r="J54" s="3">
-        <v>196863100</v>
+        <v>53249600</v>
       </c>
       <c r="K54" s="3">
-        <v>207806800</v>
+        <v>54900750</v>
       </c>
       <c r="L54" s="3">
-        <v>207806800</v>
+        <v>54900750</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2775,37 +2787,37 @@
         <v>65</v>
       </c>
       <c r="B55" s="3">
-        <v>28404200</v>
+        <v>71594600</v>
       </c>
       <c r="C55" s="3">
-        <v>0</v>
+        <v>126200</v>
       </c>
       <c r="D55" s="3">
-        <v>3528400</v>
+        <v>160100</v>
       </c>
       <c r="E55" s="3">
-        <v>31932600</v>
+        <v>71880900</v>
       </c>
       <c r="F55" s="3">
-        <v>3585600</v>
+        <v>8251400</v>
       </c>
       <c r="G55" s="3">
-        <v>76500</v>
+        <v>51800</v>
       </c>
       <c r="H55" s="3">
-        <v>20800</v>
+        <v>12600</v>
       </c>
       <c r="I55" s="3">
-        <v>3682900</v>
+        <v>8315800</v>
       </c>
       <c r="J55" s="3">
-        <v>35615500</v>
+        <v>80196700</v>
       </c>
       <c r="K55" s="3">
-        <v>37456950</v>
+        <v>84354600</v>
       </c>
       <c r="L55" s="3">
-        <v>37456950</v>
+        <v>84354600</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2813,37 +2825,37 @@
         <v>66</v>
       </c>
       <c r="B56" s="3">
-        <v>14252200</v>
+        <v>32090300</v>
       </c>
       <c r="C56" s="3">
-        <v>169100</v>
+        <v>0</v>
       </c>
       <c r="D56" s="3">
-        <v>3601000</v>
+        <v>6791900</v>
       </c>
       <c r="E56" s="3">
-        <v>18022300</v>
+        <v>38882200</v>
       </c>
       <c r="F56" s="3">
-        <v>1528100</v>
+        <v>1326500</v>
       </c>
       <c r="G56" s="3">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="H56" s="3">
-        <v>307300</v>
+        <v>849200</v>
       </c>
       <c r="I56" s="3">
-        <v>1925400</v>
+        <v>2175700</v>
       </c>
       <c r="J56" s="3">
-        <v>19947700</v>
+        <v>41057900</v>
       </c>
       <c r="K56" s="3">
-        <v>20910400</v>
+        <v>42145750</v>
       </c>
       <c r="L56" s="3">
-        <v>20910400</v>
+        <v>42145750</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2851,37 +2863,37 @@
         <v>67</v>
       </c>
       <c r="B57" s="3">
-        <v>68788300</v>
+        <v>58467700</v>
       </c>
       <c r="C57" s="3">
         <v>0</v>
       </c>
       <c r="D57" s="3">
-        <v>12028500</v>
+        <v>1640600</v>
       </c>
       <c r="E57" s="3">
-        <v>80816800</v>
+        <v>60108300</v>
       </c>
       <c r="F57" s="3">
-        <v>2744600</v>
+        <v>1316900</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>149800</v>
       </c>
       <c r="H57" s="3">
-        <v>1075700</v>
+        <v>184300</v>
       </c>
       <c r="I57" s="3">
-        <v>3820300</v>
+        <v>1651000</v>
       </c>
       <c r="J57" s="3">
-        <v>84637100</v>
+        <v>61759300</v>
       </c>
       <c r="K57" s="3">
-        <v>86547250</v>
+        <v>62584800</v>
       </c>
       <c r="L57" s="3">
-        <v>86547250</v>
+        <v>62584800</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2889,37 +2901,37 @@
         <v>68</v>
       </c>
       <c r="B58" s="3">
-        <v>62820700</v>
+        <v>167722300</v>
       </c>
       <c r="C58" s="3">
-        <v>0</v>
+        <v>821500</v>
       </c>
       <c r="D58" s="3">
-        <v>61100</v>
+        <v>6431900</v>
       </c>
       <c r="E58" s="3">
-        <v>62881800</v>
+        <v>174975700</v>
       </c>
       <c r="F58" s="3">
-        <v>807300</v>
+        <v>19503200</v>
       </c>
       <c r="G58" s="3">
-        <v>40300</v>
+        <v>627600</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>1756600</v>
       </c>
       <c r="I58" s="3">
-        <v>847600</v>
+        <v>21887400</v>
       </c>
       <c r="J58" s="3">
-        <v>63729400</v>
+        <v>196863100</v>
       </c>
       <c r="K58" s="3">
-        <v>64153200</v>
+        <v>207806800</v>
       </c>
       <c r="L58" s="3">
-        <v>64153200</v>
+        <v>207806800</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2927,37 +2939,37 @@
         <v>69</v>
       </c>
       <c r="B59" s="3">
-        <v>26352300</v>
+        <v>28404200</v>
       </c>
       <c r="C59" s="3">
         <v>0</v>
       </c>
       <c r="D59" s="3">
-        <v>41000</v>
+        <v>3528400</v>
       </c>
       <c r="E59" s="3">
-        <v>26393300</v>
+        <v>31932600</v>
       </c>
       <c r="F59" s="3">
-        <v>514300</v>
+        <v>3585600</v>
       </c>
       <c r="G59" s="3">
-        <v>2700</v>
+        <v>76500</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>20800</v>
       </c>
       <c r="I59" s="3">
-        <v>517000</v>
+        <v>3682900</v>
       </c>
       <c r="J59" s="3">
-        <v>26910300</v>
+        <v>35615500</v>
       </c>
       <c r="K59" s="3">
-        <v>27168800</v>
+        <v>37456950</v>
       </c>
       <c r="L59" s="3">
-        <v>27168800</v>
+        <v>37456950</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2965,37 +2977,37 @@
         <v>70</v>
       </c>
       <c r="B60" s="3">
-        <v>24259200</v>
+        <v>14252200</v>
       </c>
       <c r="C60" s="3">
-        <v>0</v>
+        <v>169100</v>
       </c>
       <c r="D60" s="3">
-        <v>65500</v>
+        <v>3601000</v>
       </c>
       <c r="E60" s="3">
-        <v>24324700</v>
+        <v>18022300</v>
       </c>
       <c r="F60" s="3">
-        <v>1572300</v>
+        <v>1528100</v>
       </c>
       <c r="G60" s="3">
-        <v>58300</v>
+        <v>90000</v>
       </c>
       <c r="H60" s="3">
-        <v>3300</v>
+        <v>307300</v>
       </c>
       <c r="I60" s="3">
-        <v>1633900</v>
+        <v>1925400</v>
       </c>
       <c r="J60" s="3">
-        <v>25958600</v>
+        <v>19947700</v>
       </c>
       <c r="K60" s="3">
-        <v>26775550</v>
+        <v>20910400</v>
       </c>
       <c r="L60" s="3">
-        <v>26775550</v>
+        <v>20910400</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3003,37 +3015,37 @@
         <v>71</v>
       </c>
       <c r="B61" s="3">
-        <v>34416000</v>
+        <v>68788300</v>
       </c>
       <c r="C61" s="3">
-        <v>217200</v>
+        <v>0</v>
       </c>
       <c r="D61" s="3">
-        <v>6126700</v>
+        <v>12028500</v>
       </c>
       <c r="E61" s="3">
-        <v>40759900</v>
+        <v>80816800</v>
       </c>
       <c r="F61" s="3">
-        <v>6522600</v>
+        <v>2744600</v>
       </c>
       <c r="G61" s="3">
-        <v>103000</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>45200</v>
+        <v>1075700</v>
       </c>
       <c r="I61" s="3">
-        <v>6670800</v>
+        <v>3820300</v>
       </c>
       <c r="J61" s="3">
-        <v>47430700</v>
+        <v>84637100</v>
       </c>
       <c r="K61" s="3">
-        <v>50766100</v>
+        <v>86547250</v>
       </c>
       <c r="L61" s="3">
-        <v>50766100</v>
+        <v>86547250</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3041,37 +3053,37 @@
         <v>72</v>
       </c>
       <c r="B62" s="3">
-        <v>8580500</v>
+        <v>62820700</v>
       </c>
       <c r="C62" s="3">
         <v>0</v>
       </c>
       <c r="D62" s="3">
-        <v>5000</v>
+        <v>61100</v>
       </c>
       <c r="E62" s="3">
-        <v>8585500</v>
+        <v>62881800</v>
       </c>
       <c r="F62" s="3">
-        <v>4036100</v>
+        <v>807300</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>40300</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>4036100</v>
+        <v>847600</v>
       </c>
       <c r="J62" s="3">
-        <v>12621600</v>
+        <v>63729400</v>
       </c>
       <c r="K62" s="3">
-        <v>14639650</v>
+        <v>64153200</v>
       </c>
       <c r="L62" s="3">
-        <v>14639650</v>
+        <v>64153200</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3079,37 +3091,37 @@
         <v>73</v>
       </c>
       <c r="B63" s="3">
-        <v>291962900</v>
+        <v>26352300</v>
       </c>
       <c r="C63" s="3">
         <v>0</v>
       </c>
       <c r="D63" s="3">
-        <v>7419100</v>
+        <v>41000</v>
       </c>
       <c r="E63" s="3">
-        <v>299382000</v>
+        <v>26393300</v>
       </c>
       <c r="F63" s="3">
-        <v>12093200</v>
+        <v>514300</v>
       </c>
       <c r="G63" s="3">
-        <v>1114000</v>
+        <v>2700</v>
       </c>
       <c r="H63" s="3">
-        <v>3837400</v>
+        <v>0</v>
       </c>
       <c r="I63" s="3">
-        <v>17044600</v>
+        <v>517000</v>
       </c>
       <c r="J63" s="3">
-        <v>316426600</v>
+        <v>26910300</v>
       </c>
       <c r="K63" s="3">
-        <v>324948900</v>
+        <v>27168800</v>
       </c>
       <c r="L63" s="3">
-        <v>324948900</v>
+        <v>27168800</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3117,37 +3129,37 @@
         <v>74</v>
       </c>
       <c r="B64" s="3">
-        <v>9321200</v>
+        <v>24259200</v>
       </c>
       <c r="C64" s="3">
         <v>0</v>
       </c>
       <c r="D64" s="3">
-        <v>156100</v>
+        <v>65500</v>
       </c>
       <c r="E64" s="3">
-        <v>9477300</v>
+        <v>24324700</v>
       </c>
       <c r="F64" s="3">
-        <v>116700</v>
+        <v>1572300</v>
       </c>
       <c r="G64" s="3">
-        <v>0</v>
+        <v>58300</v>
       </c>
       <c r="H64" s="3">
-        <v>178700</v>
+        <v>3300</v>
       </c>
       <c r="I64" s="3">
-        <v>295400</v>
+        <v>1633900</v>
       </c>
       <c r="J64" s="3">
-        <v>9772700</v>
+        <v>25958600</v>
       </c>
       <c r="K64" s="3">
-        <v>9920400</v>
+        <v>26775550</v>
       </c>
       <c r="L64" s="3">
-        <v>9920400</v>
+        <v>26775550</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3155,37 +3167,37 @@
         <v>75</v>
       </c>
       <c r="B65" s="3">
-        <v>67088800</v>
+        <v>34416000</v>
       </c>
       <c r="C65" s="3">
-        <v>157500</v>
+        <v>217200</v>
       </c>
       <c r="D65" s="3">
-        <v>22057400</v>
+        <v>6126700</v>
       </c>
       <c r="E65" s="3">
-        <v>89303700</v>
+        <v>40759900</v>
       </c>
       <c r="F65" s="3">
-        <v>9886000</v>
+        <v>6522600</v>
       </c>
       <c r="G65" s="3">
-        <v>474400</v>
+        <v>103000</v>
       </c>
       <c r="H65" s="3">
-        <v>673700</v>
+        <v>45200</v>
       </c>
       <c r="I65" s="3">
-        <v>11034100</v>
+        <v>6670800</v>
       </c>
       <c r="J65" s="3">
-        <v>100337800</v>
+        <v>47430700</v>
       </c>
       <c r="K65" s="3">
-        <v>105854850</v>
+        <v>50766100</v>
       </c>
       <c r="L65" s="3">
-        <v>105854850</v>
+        <v>50766100</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3193,37 +3205,37 @@
         <v>76</v>
       </c>
       <c r="B66" s="3">
-        <v>89074800</v>
+        <v>8580500</v>
       </c>
       <c r="C66" s="3">
-        <v>277900</v>
+        <v>0</v>
       </c>
       <c r="D66" s="3">
-        <v>16435700</v>
+        <v>5000</v>
       </c>
       <c r="E66" s="3">
-        <v>105788400</v>
+        <v>8585500</v>
       </c>
       <c r="F66" s="3">
-        <v>15031600</v>
+        <v>4036100</v>
       </c>
       <c r="G66" s="3">
-        <v>440400</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
-        <v>622400</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
-        <v>16094400</v>
+        <v>4036100</v>
       </c>
       <c r="J66" s="3">
-        <v>121882800</v>
+        <v>12621600</v>
       </c>
       <c r="K66" s="3">
-        <v>129930000</v>
+        <v>14639650</v>
       </c>
       <c r="L66" s="3">
-        <v>129930000</v>
+        <v>14639650</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3231,37 +3243,37 @@
         <v>77</v>
       </c>
       <c r="B67" s="3">
-        <v>336943900</v>
+        <v>291962900</v>
       </c>
       <c r="C67" s="3">
         <v>0</v>
       </c>
       <c r="D67" s="3">
-        <v>9984600</v>
+        <v>7419100</v>
       </c>
       <c r="E67" s="3">
-        <v>346928500</v>
+        <v>299382000</v>
       </c>
       <c r="F67" s="3">
-        <v>4027400</v>
+        <v>12093200</v>
       </c>
       <c r="G67" s="3">
-        <v>0</v>
+        <v>1114000</v>
       </c>
       <c r="H67" s="3">
-        <v>30200</v>
+        <v>3837400</v>
       </c>
       <c r="I67" s="3">
-        <v>4057600</v>
+        <v>17044600</v>
       </c>
       <c r="J67" s="3">
-        <v>350986100</v>
+        <v>316426600</v>
       </c>
       <c r="K67" s="3">
-        <v>353014900</v>
+        <v>324948900</v>
       </c>
       <c r="L67" s="3">
-        <v>353014900</v>
+        <v>324948900</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3269,37 +3281,37 @@
         <v>78</v>
       </c>
       <c r="B68" s="3">
-        <v>48103300</v>
+        <v>9321200</v>
       </c>
       <c r="C68" s="3">
         <v>0</v>
       </c>
       <c r="D68" s="3">
-        <v>6100</v>
+        <v>156100</v>
       </c>
       <c r="E68" s="3">
-        <v>48109400</v>
+        <v>9477300</v>
       </c>
       <c r="F68" s="3">
-        <v>4281400</v>
+        <v>116700</v>
       </c>
       <c r="G68" s="3">
         <v>0</v>
       </c>
       <c r="H68" s="3">
-        <v>575000</v>
+        <v>178700</v>
       </c>
       <c r="I68" s="3">
-        <v>4856400</v>
+        <v>295400</v>
       </c>
       <c r="J68" s="3">
-        <v>52965800</v>
+        <v>9772700</v>
       </c>
       <c r="K68" s="3">
-        <v>55394000</v>
+        <v>9920400</v>
       </c>
       <c r="L68" s="3">
-        <v>55394000</v>
+        <v>9920400</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3307,37 +3319,37 @@
         <v>79</v>
       </c>
       <c r="B69" s="3">
-        <v>72217000</v>
+        <v>67088800</v>
       </c>
       <c r="C69" s="3">
-        <v>0</v>
+        <v>157500</v>
       </c>
       <c r="D69" s="3">
-        <v>642800</v>
+        <v>22057400</v>
       </c>
       <c r="E69" s="3">
-        <v>72859800</v>
+        <v>89303700</v>
       </c>
       <c r="F69" s="3">
-        <v>2935600</v>
+        <v>9886000</v>
       </c>
       <c r="G69" s="3">
-        <v>69800</v>
+        <v>474400</v>
       </c>
       <c r="H69" s="3">
-        <v>622100</v>
+        <v>673700</v>
       </c>
       <c r="I69" s="3">
-        <v>3627500</v>
+        <v>11034100</v>
       </c>
       <c r="J69" s="3">
-        <v>76487300</v>
+        <v>100337800</v>
       </c>
       <c r="K69" s="3">
-        <v>78301050</v>
+        <v>105854850</v>
       </c>
       <c r="L69" s="3">
-        <v>78301050</v>
+        <v>105854850</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3345,37 +3357,37 @@
         <v>80</v>
       </c>
       <c r="B70" s="3">
-        <v>35971600</v>
+        <v>89074800</v>
       </c>
       <c r="C70" s="3">
-        <v>0</v>
+        <v>277900</v>
       </c>
       <c r="D70" s="3">
-        <v>7059400</v>
+        <v>16435700</v>
       </c>
       <c r="E70" s="3">
-        <v>43031000</v>
+        <v>105788400</v>
       </c>
       <c r="F70" s="3">
-        <v>5575900</v>
+        <v>15031600</v>
       </c>
       <c r="G70" s="3">
-        <v>71700</v>
+        <v>440400</v>
       </c>
       <c r="H70" s="3">
-        <v>1268100</v>
+        <v>622400</v>
       </c>
       <c r="I70" s="3">
-        <v>6915700</v>
+        <v>16094400</v>
       </c>
       <c r="J70" s="3">
-        <v>49946700</v>
+        <v>121882800</v>
       </c>
       <c r="K70" s="3">
-        <v>53404550</v>
+        <v>129930000</v>
       </c>
       <c r="L70" s="3">
-        <v>53404550</v>
+        <v>129930000</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3383,37 +3395,37 @@
         <v>81</v>
       </c>
       <c r="B71" s="3">
-        <v>67370500</v>
+        <v>336943900</v>
       </c>
       <c r="C71" s="3">
-        <v>207100</v>
+        <v>0</v>
       </c>
       <c r="D71" s="3">
-        <v>24864400</v>
+        <v>9984600</v>
       </c>
       <c r="E71" s="3">
-        <v>92442000</v>
+        <v>346928500</v>
       </c>
       <c r="F71" s="3">
-        <v>16100800</v>
+        <v>4027400</v>
       </c>
       <c r="G71" s="3">
-        <v>244600</v>
+        <v>0</v>
       </c>
       <c r="H71" s="3">
-        <v>2028500</v>
+        <v>30200</v>
       </c>
       <c r="I71" s="3">
-        <v>18373900</v>
+        <v>4057600</v>
       </c>
       <c r="J71" s="3">
-        <v>110815900</v>
+        <v>350986100</v>
       </c>
       <c r="K71" s="3">
-        <v>120002850</v>
+        <v>353014900</v>
       </c>
       <c r="L71" s="3">
-        <v>120002850</v>
+        <v>353014900</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3421,37 +3433,37 @@
         <v>82</v>
       </c>
       <c r="B72" s="3">
-        <v>90615500</v>
+        <v>48103300</v>
       </c>
       <c r="C72" s="3">
         <v>0</v>
       </c>
       <c r="D72" s="3">
-        <v>7502700</v>
+        <v>6100</v>
       </c>
       <c r="E72" s="3">
-        <v>98118200</v>
+        <v>48109400</v>
       </c>
       <c r="F72" s="3">
-        <v>7767000</v>
+        <v>4281400</v>
       </c>
       <c r="G72" s="3">
-        <v>77400</v>
+        <v>0</v>
       </c>
       <c r="H72" s="3">
-        <v>8600</v>
+        <v>575000</v>
       </c>
       <c r="I72" s="3">
-        <v>7853000</v>
+        <v>4856400</v>
       </c>
       <c r="J72" s="3">
-        <v>105971200</v>
+        <v>52965800</v>
       </c>
       <c r="K72" s="3">
-        <v>109897700</v>
+        <v>55394000</v>
       </c>
       <c r="L72" s="3">
-        <v>109897700</v>
+        <v>55394000</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3459,37 +3471,37 @@
         <v>83</v>
       </c>
       <c r="B73" s="3">
-        <v>67418800</v>
+        <v>72217000</v>
       </c>
       <c r="C73" s="3">
         <v>0</v>
       </c>
       <c r="D73" s="3">
-        <v>10664400</v>
+        <v>642800</v>
       </c>
       <c r="E73" s="3">
-        <v>78083200</v>
+        <v>72859800</v>
       </c>
       <c r="F73" s="3">
-        <v>9247300</v>
+        <v>2935600</v>
       </c>
       <c r="G73" s="3">
-        <v>121600</v>
+        <v>69800</v>
       </c>
       <c r="H73" s="3">
-        <v>224500</v>
+        <v>622100</v>
       </c>
       <c r="I73" s="3">
-        <v>9593400</v>
+        <v>3627500</v>
       </c>
       <c r="J73" s="3">
-        <v>87676600</v>
+        <v>76487300</v>
       </c>
       <c r="K73" s="3">
-        <v>92473300</v>
+        <v>78301050</v>
       </c>
       <c r="L73" s="3">
-        <v>92473300</v>
+        <v>78301050</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3497,37 +3509,37 @@
         <v>84</v>
       </c>
       <c r="B74" s="3">
-        <v>33079900</v>
+        <v>35971600</v>
       </c>
       <c r="C74" s="3">
         <v>0</v>
       </c>
       <c r="D74" s="3">
-        <v>12291800</v>
+        <v>7059400</v>
       </c>
       <c r="E74" s="3">
-        <v>45371700</v>
+        <v>43031000</v>
       </c>
       <c r="F74" s="3">
-        <v>10309500</v>
+        <v>5575900</v>
       </c>
       <c r="G74" s="3">
-        <v>162300</v>
+        <v>71700</v>
       </c>
       <c r="H74" s="3">
-        <v>233400</v>
+        <v>1268100</v>
       </c>
       <c r="I74" s="3">
-        <v>10705200</v>
+        <v>6915700</v>
       </c>
       <c r="J74" s="3">
-        <v>56076900</v>
+        <v>49946700</v>
       </c>
       <c r="K74" s="3">
-        <v>61429500</v>
+        <v>53404550</v>
       </c>
       <c r="L74" s="3">
-        <v>61429500</v>
+        <v>53404550</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3535,37 +3547,37 @@
         <v>85</v>
       </c>
       <c r="B75" s="3">
-        <v>40414400</v>
+        <v>67370500</v>
       </c>
       <c r="C75" s="3">
-        <v>0</v>
+        <v>207100</v>
       </c>
       <c r="D75" s="3">
-        <v>2560300</v>
+        <v>24864400</v>
       </c>
       <c r="E75" s="3">
-        <v>42974700</v>
+        <v>92442000</v>
       </c>
       <c r="F75" s="3">
-        <v>739600</v>
+        <v>16100800</v>
       </c>
       <c r="G75" s="3">
-        <v>0</v>
+        <v>244600</v>
       </c>
       <c r="H75" s="3">
-        <v>1000</v>
+        <v>2028500</v>
       </c>
       <c r="I75" s="3">
-        <v>740600</v>
+        <v>18373900</v>
       </c>
       <c r="J75" s="3">
-        <v>43715300</v>
+        <v>110815900</v>
       </c>
       <c r="K75" s="3">
-        <v>44085600</v>
+        <v>120002850</v>
       </c>
       <c r="L75" s="3">
-        <v>44085600</v>
+        <v>120002850</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3573,37 +3585,37 @@
         <v>86</v>
       </c>
       <c r="B76" s="3">
-        <v>14979400</v>
+        <v>90615500</v>
       </c>
       <c r="C76" s="3">
         <v>0</v>
       </c>
       <c r="D76" s="3">
-        <v>3959100</v>
+        <v>7502700</v>
       </c>
       <c r="E76" s="3">
-        <v>18938500</v>
+        <v>98118200</v>
       </c>
       <c r="F76" s="3">
-        <v>3529600</v>
+        <v>7767000</v>
       </c>
       <c r="G76" s="3">
-        <v>75800</v>
+        <v>77400</v>
       </c>
       <c r="H76" s="3">
-        <v>520000</v>
+        <v>8600</v>
       </c>
       <c r="I76" s="3">
-        <v>4125400</v>
+        <v>7853000</v>
       </c>
       <c r="J76" s="3">
-        <v>23063900</v>
+        <v>105971200</v>
       </c>
       <c r="K76" s="3">
-        <v>25126600</v>
+        <v>109897700</v>
       </c>
       <c r="L76" s="3">
-        <v>25126600</v>
+        <v>109897700</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3611,37 +3623,37 @@
         <v>87</v>
       </c>
       <c r="B77" s="3">
-        <v>59762400</v>
+        <v>67418800</v>
       </c>
       <c r="C77" s="3">
         <v>0</v>
       </c>
       <c r="D77" s="3">
-        <v>17410300</v>
+        <v>10664400</v>
       </c>
       <c r="E77" s="3">
-        <v>77172700</v>
+        <v>78083200</v>
       </c>
       <c r="F77" s="3">
-        <v>4952500</v>
+        <v>9247300</v>
       </c>
       <c r="G77" s="3">
-        <v>120800</v>
+        <v>121600</v>
       </c>
       <c r="H77" s="3">
-        <v>91900</v>
+        <v>224500</v>
       </c>
       <c r="I77" s="3">
-        <v>5165200</v>
+        <v>9593400</v>
       </c>
       <c r="J77" s="3">
-        <v>82337900</v>
+        <v>87676600</v>
       </c>
       <c r="K77" s="3">
-        <v>84920500</v>
+        <v>92473300</v>
       </c>
       <c r="L77" s="3">
-        <v>84920500</v>
+        <v>92473300</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3649,37 +3661,37 @@
         <v>88</v>
       </c>
       <c r="B78" s="3">
-        <v>19490500</v>
+        <v>33079900</v>
       </c>
       <c r="C78" s="3">
         <v>0</v>
       </c>
       <c r="D78" s="3">
-        <v>1760800</v>
+        <v>12291800</v>
       </c>
       <c r="E78" s="3">
-        <v>21251300</v>
+        <v>45371700</v>
       </c>
       <c r="F78" s="3">
-        <v>559100</v>
+        <v>10309500</v>
       </c>
       <c r="G78" s="3">
-        <v>0</v>
+        <v>162300</v>
       </c>
       <c r="H78" s="3">
-        <v>317900</v>
+        <v>233400</v>
       </c>
       <c r="I78" s="3">
-        <v>877000</v>
+        <v>10705200</v>
       </c>
       <c r="J78" s="3">
-        <v>22128300</v>
+        <v>56076900</v>
       </c>
       <c r="K78" s="3">
-        <v>22566800</v>
+        <v>61429500</v>
       </c>
       <c r="L78" s="3">
-        <v>22566800</v>
+        <v>61429500</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3687,37 +3699,37 @@
         <v>89</v>
       </c>
       <c r="B79" s="3">
-        <v>32653200</v>
+        <v>40414400</v>
       </c>
       <c r="C79" s="3">
         <v>0</v>
       </c>
       <c r="D79" s="3">
-        <v>5064300</v>
+        <v>2560300</v>
       </c>
       <c r="E79" s="3">
-        <v>37717500</v>
+        <v>42974700</v>
       </c>
       <c r="F79" s="3">
-        <v>1171600</v>
+        <v>739600</v>
       </c>
       <c r="G79" s="3">
-        <v>38500</v>
+        <v>0</v>
       </c>
       <c r="H79" s="3">
-        <v>635100</v>
+        <v>1000</v>
       </c>
       <c r="I79" s="3">
-        <v>1845200</v>
+        <v>740600</v>
       </c>
       <c r="J79" s="3">
-        <v>39562700</v>
+        <v>43715300</v>
       </c>
       <c r="K79" s="3">
-        <v>40485300</v>
+        <v>44085600</v>
       </c>
       <c r="L79" s="3">
-        <v>40485300</v>
+        <v>44085600</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3725,37 +3737,37 @@
         <v>90</v>
       </c>
       <c r="B80" s="3">
-        <v>37300700</v>
+        <v>14979400</v>
       </c>
       <c r="C80" s="3">
-        <v>311600</v>
+        <v>0</v>
       </c>
       <c r="D80" s="3">
-        <v>11800000</v>
+        <v>3959100</v>
       </c>
       <c r="E80" s="3">
-        <v>49412300</v>
+        <v>18938500</v>
       </c>
       <c r="F80" s="3">
-        <v>4814300</v>
+        <v>3529600</v>
       </c>
       <c r="G80" s="3">
-        <v>90600</v>
+        <v>75800</v>
       </c>
       <c r="H80" s="3">
-        <v>176600</v>
+        <v>520000</v>
       </c>
       <c r="I80" s="3">
-        <v>5081500</v>
+        <v>4125400</v>
       </c>
       <c r="J80" s="3">
-        <v>54493800</v>
+        <v>23063900</v>
       </c>
       <c r="K80" s="3">
-        <v>57034550</v>
+        <v>25126600</v>
       </c>
       <c r="L80" s="3">
-        <v>57034550</v>
+        <v>25126600</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3763,37 +3775,37 @@
         <v>91</v>
       </c>
       <c r="B81" s="3">
-        <v>96949000</v>
+        <v>59762400</v>
       </c>
       <c r="C81" s="3">
         <v>0</v>
       </c>
       <c r="D81" s="3">
-        <v>4595400</v>
+        <v>17410300</v>
       </c>
       <c r="E81" s="3">
-        <v>101544400</v>
+        <v>77172700</v>
       </c>
       <c r="F81" s="3">
-        <v>7814700</v>
+        <v>4952500</v>
       </c>
       <c r="G81" s="3">
-        <v>70100</v>
+        <v>120800</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>91900</v>
       </c>
       <c r="I81" s="3">
-        <v>7884800</v>
+        <v>5165200</v>
       </c>
       <c r="J81" s="3">
-        <v>109429200</v>
+        <v>82337900</v>
       </c>
       <c r="K81" s="3">
-        <v>113371600</v>
+        <v>84920500</v>
       </c>
       <c r="L81" s="3">
-        <v>113371600</v>
+        <v>84920500</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3801,37 +3813,37 @@
         <v>92</v>
       </c>
       <c r="B82" s="3">
-        <v>41500100</v>
+        <v>19490500</v>
       </c>
       <c r="C82" s="3">
         <v>0</v>
       </c>
       <c r="D82" s="3">
-        <v>3460300</v>
+        <v>1760800</v>
       </c>
       <c r="E82" s="3">
-        <v>44960400</v>
+        <v>21251300</v>
       </c>
       <c r="F82" s="3">
-        <v>4145000</v>
+        <v>559100</v>
       </c>
       <c r="G82" s="3">
-        <v>46800</v>
+        <v>0</v>
       </c>
       <c r="H82" s="3">
-        <v>21300</v>
+        <v>317900</v>
       </c>
       <c r="I82" s="3">
-        <v>4213100</v>
+        <v>877000</v>
       </c>
       <c r="J82" s="3">
-        <v>49173500</v>
+        <v>22128300</v>
       </c>
       <c r="K82" s="3">
-        <v>51280050</v>
+        <v>22566800</v>
       </c>
       <c r="L82" s="3">
-        <v>51280050</v>
+        <v>22566800</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3839,37 +3851,37 @@
         <v>93</v>
       </c>
       <c r="B83" s="3">
-        <v>20412300</v>
+        <v>32653200</v>
       </c>
       <c r="C83" s="3">
         <v>0</v>
       </c>
       <c r="D83" s="3">
-        <v>10500</v>
+        <v>5064300</v>
       </c>
       <c r="E83" s="3">
-        <v>20422800</v>
+        <v>37717500</v>
       </c>
       <c r="F83" s="3">
-        <v>277400</v>
+        <v>1171600</v>
       </c>
       <c r="G83" s="3">
-        <v>44100</v>
+        <v>38500</v>
       </c>
       <c r="H83" s="3">
-        <v>36500</v>
+        <v>635100</v>
       </c>
       <c r="I83" s="3">
-        <v>358000</v>
+        <v>1845200</v>
       </c>
       <c r="J83" s="3">
-        <v>20780800</v>
+        <v>39562700</v>
       </c>
       <c r="K83" s="3">
-        <v>20959800</v>
+        <v>40485300</v>
       </c>
       <c r="L83" s="3">
-        <v>20959800</v>
+        <v>40485300</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3877,37 +3889,37 @@
         <v>94</v>
       </c>
       <c r="B84" s="3">
-        <v>35649800</v>
+        <v>37300700</v>
       </c>
       <c r="C84" s="3">
-        <v>107400</v>
+        <v>311600</v>
       </c>
       <c r="D84" s="3">
-        <v>17342900</v>
+        <v>11800000</v>
       </c>
       <c r="E84" s="3">
-        <v>53100100</v>
+        <v>49412300</v>
       </c>
       <c r="F84" s="3">
-        <v>5242500</v>
+        <v>4814300</v>
       </c>
       <c r="G84" s="3">
-        <v>83700</v>
+        <v>90600</v>
       </c>
       <c r="H84" s="3">
-        <v>10200</v>
+        <v>176600</v>
       </c>
       <c r="I84" s="3">
-        <v>5336400</v>
+        <v>5081500</v>
       </c>
       <c r="J84" s="3">
-        <v>58436500</v>
+        <v>54493800</v>
       </c>
       <c r="K84" s="3">
-        <v>61104700</v>
+        <v>57034550</v>
       </c>
       <c r="L84" s="3">
-        <v>61104700</v>
+        <v>57034550</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3915,37 +3927,37 @@
         <v>95</v>
       </c>
       <c r="B85" s="3">
-        <v>37581200</v>
+        <v>96949000</v>
       </c>
       <c r="C85" s="3">
         <v>0</v>
       </c>
       <c r="D85" s="3">
-        <v>3509200</v>
+        <v>4595400</v>
       </c>
       <c r="E85" s="3">
-        <v>41090400</v>
+        <v>101544400</v>
       </c>
       <c r="F85" s="3">
-        <v>1786100</v>
+        <v>7814700</v>
       </c>
       <c r="G85" s="3">
-        <v>51900</v>
+        <v>70100</v>
       </c>
       <c r="H85" s="3">
-        <v>504800</v>
+        <v>0</v>
       </c>
       <c r="I85" s="3">
-        <v>2342800</v>
+        <v>7884800</v>
       </c>
       <c r="J85" s="3">
-        <v>43433200</v>
+        <v>109429200</v>
       </c>
       <c r="K85" s="3">
-        <v>44604600</v>
+        <v>113371600</v>
       </c>
       <c r="L85" s="3">
-        <v>44604600</v>
+        <v>113371600</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3953,37 +3965,37 @@
         <v>96</v>
       </c>
       <c r="B86" s="3">
-        <v>27288600</v>
+        <v>41500100</v>
       </c>
       <c r="C86" s="3">
         <v>0</v>
       </c>
       <c r="D86" s="3">
-        <v>3815500</v>
+        <v>3460300</v>
       </c>
       <c r="E86" s="3">
-        <v>31104100</v>
+        <v>44960400</v>
       </c>
       <c r="F86" s="3">
-        <v>1934700</v>
+        <v>4145000</v>
       </c>
       <c r="G86" s="3">
-        <v>0</v>
+        <v>46800</v>
       </c>
       <c r="H86" s="3">
-        <v>0</v>
+        <v>21300</v>
       </c>
       <c r="I86" s="3">
-        <v>1934700</v>
+        <v>4213100</v>
       </c>
       <c r="J86" s="3">
-        <v>33038800</v>
+        <v>49173500</v>
       </c>
       <c r="K86" s="3">
-        <v>34006150</v>
+        <v>51280050</v>
       </c>
       <c r="L86" s="3">
-        <v>34006150</v>
+        <v>51280050</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -3991,37 +4003,37 @@
         <v>97</v>
       </c>
       <c r="B87" s="3">
-        <v>129411300</v>
+        <v>20412300</v>
       </c>
       <c r="C87" s="3">
         <v>0</v>
       </c>
       <c r="D87" s="3">
-        <v>15762500</v>
+        <v>10500</v>
       </c>
       <c r="E87" s="3">
-        <v>145173800</v>
+        <v>20422800</v>
       </c>
       <c r="F87" s="3">
-        <v>23105500</v>
+        <v>277400</v>
       </c>
       <c r="G87" s="3">
-        <v>83400</v>
+        <v>44100</v>
       </c>
       <c r="H87" s="3">
-        <v>738000</v>
+        <v>36500</v>
       </c>
       <c r="I87" s="3">
-        <v>23926900</v>
+        <v>358000</v>
       </c>
       <c r="J87" s="3">
-        <v>169100700</v>
+        <v>20780800</v>
       </c>
       <c r="K87" s="3">
-        <v>181064150</v>
+        <v>20959800</v>
       </c>
       <c r="L87" s="3">
-        <v>181064150</v>
+        <v>20959800</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4029,37 +4041,37 @@
         <v>98</v>
       </c>
       <c r="B88" s="3">
-        <v>18885200</v>
+        <v>35649800</v>
       </c>
       <c r="C88" s="3">
-        <v>0</v>
+        <v>107400</v>
       </c>
       <c r="D88" s="3">
-        <v>1265100</v>
+        <v>17342900</v>
       </c>
       <c r="E88" s="3">
-        <v>20150300</v>
+        <v>53100100</v>
       </c>
       <c r="F88" s="3">
-        <v>1234600</v>
+        <v>5242500</v>
       </c>
       <c r="G88" s="3">
-        <v>0</v>
+        <v>83700</v>
       </c>
       <c r="H88" s="3">
-        <v>209200</v>
+        <v>10200</v>
       </c>
       <c r="I88" s="3">
-        <v>1443800</v>
+        <v>5336400</v>
       </c>
       <c r="J88" s="3">
-        <v>21594100</v>
+        <v>58436500</v>
       </c>
       <c r="K88" s="3">
-        <v>22316000</v>
+        <v>61104700</v>
       </c>
       <c r="L88" s="3">
-        <v>22316000</v>
+        <v>61104700</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4067,37 +4079,37 @@
         <v>99</v>
       </c>
       <c r="B89" s="3">
-        <v>19026100</v>
+        <v>37581200</v>
       </c>
       <c r="C89" s="3">
         <v>0</v>
       </c>
       <c r="D89" s="3">
-        <v>7138900</v>
+        <v>3509200</v>
       </c>
       <c r="E89" s="3">
-        <v>26165000</v>
+        <v>41090400</v>
       </c>
       <c r="F89" s="3">
-        <v>2132800</v>
+        <v>1786100</v>
       </c>
       <c r="G89" s="3">
-        <v>89900</v>
+        <v>51900</v>
       </c>
       <c r="H89" s="3">
-        <v>441400</v>
+        <v>504800</v>
       </c>
       <c r="I89" s="3">
-        <v>2664100</v>
+        <v>2342800</v>
       </c>
       <c r="J89" s="3">
-        <v>28829100</v>
+        <v>43433200</v>
       </c>
       <c r="K89" s="3">
-        <v>30161150</v>
+        <v>44604600</v>
       </c>
       <c r="L89" s="3">
-        <v>30161150</v>
+        <v>44604600</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4105,19 +4117,19 @@
         <v>100</v>
       </c>
       <c r="B90" s="3">
-        <v>83748100</v>
+        <v>27288600</v>
       </c>
       <c r="C90" s="3">
         <v>0</v>
       </c>
       <c r="D90" s="3">
-        <v>5245100</v>
+        <v>3815500</v>
       </c>
       <c r="E90" s="3">
-        <v>88993200</v>
+        <v>31104100</v>
       </c>
       <c r="F90" s="3">
-        <v>9106200</v>
+        <v>1934700</v>
       </c>
       <c r="G90" s="3">
         <v>0</v>
@@ -4126,16 +4138,16 @@
         <v>0</v>
       </c>
       <c r="I90" s="3">
-        <v>9106200</v>
+        <v>1934700</v>
       </c>
       <c r="J90" s="3">
-        <v>98099400</v>
+        <v>33038800</v>
       </c>
       <c r="K90" s="3">
-        <v>102652500</v>
+        <v>34006150</v>
       </c>
       <c r="L90" s="3">
-        <v>102652500</v>
+        <v>34006150</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4143,37 +4155,37 @@
         <v>101</v>
       </c>
       <c r="B91" s="3">
-        <v>55449500</v>
+        <v>129411300</v>
       </c>
       <c r="C91" s="3">
         <v>0</v>
       </c>
       <c r="D91" s="3">
-        <v>307300</v>
+        <v>15762500</v>
       </c>
       <c r="E91" s="3">
-        <v>55756800</v>
+        <v>145173800</v>
       </c>
       <c r="F91" s="3">
-        <v>864200</v>
+        <v>23105500</v>
       </c>
       <c r="G91" s="3">
-        <v>72700</v>
+        <v>83400</v>
       </c>
       <c r="H91" s="3">
-        <v>2799200</v>
+        <v>738000</v>
       </c>
       <c r="I91" s="3">
-        <v>3736100</v>
+        <v>23926900</v>
       </c>
       <c r="J91" s="3">
-        <v>59492900</v>
+        <v>169100700</v>
       </c>
       <c r="K91" s="3">
-        <v>61360950</v>
+        <v>181064150</v>
       </c>
       <c r="L91" s="3">
-        <v>61360950</v>
+        <v>181064150</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4181,36 +4193,188 @@
         <v>102</v>
       </c>
       <c r="B92" s="3">
+        <v>18885200</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1265100</v>
+      </c>
+      <c r="E92" s="3">
+        <v>20150300</v>
+      </c>
+      <c r="F92" s="3">
+        <v>1234600</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
+        <v>209200</v>
+      </c>
+      <c r="I92" s="3">
+        <v>1443800</v>
+      </c>
+      <c r="J92" s="3">
+        <v>21594100</v>
+      </c>
+      <c r="K92" s="3">
+        <v>22316000</v>
+      </c>
+      <c r="L92" s="3">
+        <v>22316000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" s="3">
+        <v>19026100</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0</v>
+      </c>
+      <c r="D93" s="3">
+        <v>7138900</v>
+      </c>
+      <c r="E93" s="3">
+        <v>26165000</v>
+      </c>
+      <c r="F93" s="3">
+        <v>2132800</v>
+      </c>
+      <c r="G93" s="3">
+        <v>89900</v>
+      </c>
+      <c r="H93" s="3">
+        <v>441400</v>
+      </c>
+      <c r="I93" s="3">
+        <v>2664100</v>
+      </c>
+      <c r="J93" s="3">
+        <v>28829100</v>
+      </c>
+      <c r="K93" s="3">
+        <v>30161150</v>
+      </c>
+      <c r="L93" s="3">
+        <v>30161150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" s="3">
+        <v>83748100</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0</v>
+      </c>
+      <c r="D94" s="3">
+        <v>5245100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>88993200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>9106200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>9106200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>98099400</v>
+      </c>
+      <c r="K94" s="3">
+        <v>102652500</v>
+      </c>
+      <c r="L94" s="3">
+        <v>102652500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" s="3">
+        <v>55449500</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0</v>
+      </c>
+      <c r="D95" s="3">
+        <v>307300</v>
+      </c>
+      <c r="E95" s="3">
+        <v>55756800</v>
+      </c>
+      <c r="F95" s="3">
+        <v>864200</v>
+      </c>
+      <c r="G95" s="3">
+        <v>72700</v>
+      </c>
+      <c r="H95" s="3">
+        <v>2799200</v>
+      </c>
+      <c r="I95" s="3">
+        <v>3736100</v>
+      </c>
+      <c r="J95" s="3">
+        <v>59492900</v>
+      </c>
+      <c r="K95" s="3">
+        <v>61360950</v>
+      </c>
+      <c r="L95" s="3">
+        <v>61360950</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" s="3">
         <v>3600299200</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C96" s="3">
         <v>13880300</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D96" s="3">
         <v>356612600</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E96" s="3">
         <v>3970792100</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F96" s="3">
         <v>598679200</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G96" s="3">
         <v>43448500</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H96" s="3">
         <v>33785100</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I96" s="3">
         <v>675912800</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J96" s="3">
         <v>4646704900</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K96" s="3">
         <v>4984661300</v>
       </c>
-      <c r="L92" s="3">
+      <c r="L96" s="3">
         <v>4984661300</v>
       </c>
     </row>
